--- a/TestData/firstFlow/bulkEditOptions.xlsx
+++ b/TestData/firstFlow/bulkEditOptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA94F4-4FCD-45F5-9F42-C05BDDD180E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C14186-8139-417C-B563-290FEC4A4739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +563,7 @@
       <c r="U2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>24</v>
       </c>
       <c r="W2" s="1" t="s">
